--- a/Income/SIVB_inc.xlsx
+++ b/Income/SIVB_inc.xlsx
@@ -1526,16 +1526,16 @@
         <v>1.0332</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.0278</v>
+        <v>1.0106</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>0.9987</v>
+        <v>0.9812</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.9774</v>
+        <v>0.9606</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.956</v>
+        <v>0.9397</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0.9446</v>
@@ -1780,16 +1780,16 @@
         <v>0.4504</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.4315</v>
+        <v>0.4242</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.3778</v>
+        <v>0.3712</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.4067</v>
+        <v>0.3997</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.464</v>
+        <v>0.4561</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.4828</v>
@@ -1907,16 +1907,16 @@
         <v>0.3079</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.3018</v>
+        <v>0.2967</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.2642</v>
+        <v>0.2595</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.2859</v>
+        <v>0.281</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.3276</v>
+        <v>0.322</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.3395</v>
@@ -2034,16 +2034,16 @@
         <v>0.3511</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3992</v>
+        <v>0.3925</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4034</v>
+        <v>0.3963</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.2644</v>
+        <v>0.2598</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.3165</v>
+        <v>0.3112</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.2645</v>
@@ -2923,16 +2923,16 @@
         <v>0.3737</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.4269</v>
+        <v>0.4197</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>0.4324</v>
+        <v>0.4249</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.2892</v>
+        <v>0.2842</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.3354</v>
+        <v>0.3297</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0.2797</v>
